--- a/Emissions_Data.xlsx
+++ b/Emissions_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Thesis/Models/Pretreatment-Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8E7B53-73C7-EA4A-B985-4826649A1681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED1479-9435-D245-AE0F-7FC0FBE5E933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="8600" windowWidth="26760" windowHeight="14900" xr2:uid="{985A8C16-82E8-6444-87FF-3A4B71A8DEC4}"/>
+    <workbookView xWindow="4240" yWindow="4420" windowWidth="24240" windowHeight="6900" xr2:uid="{985A8C16-82E8-6444-87FF-3A4B71A8DEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,13 +159,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,9 +214,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +541,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +549,12 @@
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -547,7 +593,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -586,7 +632,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -621,7 +667,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -656,7 +702,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -691,7 +737,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -725,155 +771,155 @@
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <f>0.0000000915</f>
         <v>9.1500000000000005E-8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f>0.0000000148</f>
         <v>1.48E-8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>6.43E-8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>5.8299999999999999E-8</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>9.8799999999999998E-8</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>6.6800000000000001E-9</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>1.55E-8</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <f>0.000000124</f>
         <v>1.24E-7</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <f>0.0000000585</f>
         <v>5.8500000000000001E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f>0.000000107</f>
         <v>1.0700000000000001E-7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f>0.000000124</f>
         <v>1.24E-7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>4.3599999999999999E-7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>6.3099999999999997E-7</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>5.4300000000000003E-7</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>4.3000000000000001E-8</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <v>5.2199999999999998E-8</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <f>0.00000106</f>
         <v>1.06E-6</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="6">
         <v>2.7099999999999998E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>9.0400000000000002E-5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>4.9600000000000002E-4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>9.3199999999999999E-4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>2.0100000000000001E-3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>2.2100000000000001E-4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>5.5599999999999996E-4</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>1.47E-3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="7">
         <v>9.41E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>7.84</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>3.03</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>10.9</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>11.9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>13.8</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="8">
         <v>1.02</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <v>1.46</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>24.9</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>7.78</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -941,5 +987,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>